--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2249836.183668009</v>
+        <v>-2252317.103493467</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.46468346831807</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>19.08875413105759</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>11.76070933255605</v>
       </c>
       <c r="G13" t="n">
-        <v>53.42068368281544</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271165</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292092</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>22.28383088118022</v>
       </c>
       <c r="H14" t="n">
-        <v>116.6556728086107</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.2676152010494</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
@@ -1780,10 +1780,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271165</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>6.69334214398841</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7358788932395</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652886</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>168.448121283162</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V17" t="n">
         <v>253.856975264416</v>
@@ -1907,7 +1907,7 @@
         <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>243.5714575743104</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290891</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1198840074553</v>
+        <v>74.72018981249343</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085025</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721232</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.1305250533093</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860186</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432836</v>
+        <v>15.0368694643284</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782798</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245688</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>52.97552838455605</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V20" t="n">
-        <v>141.5173381326142</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
         <v>275.3456855116941</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290891</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249343</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085025</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721229</v>
+        <v>133.925459012174</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330927</v>
+        <v>92.1305250533093</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860186</v>
       </c>
       <c r="I22" t="n">
-        <v>84.85683139908087</v>
+        <v>22.45713720411917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.0368694643284</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816015</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V23" t="n">
         <v>253.856975264416</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711804</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290891</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249343</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085025</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721232</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330927</v>
+        <v>92.1305250533093</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860186</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W25" t="n">
-        <v>275.0274093258344</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958332</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>89.94326605922012</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>206.7447287364415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>42.20693826439362</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>196.6598613601174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383232</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482627</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>89.27723295060973</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439295</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>111.8803261135838</v>
       </c>
       <c r="H46" t="n">
-        <v>89.27723295061004</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1408.346399622099</v>
+        <v>2154.8229678559</v>
       </c>
       <c r="C11" t="n">
-        <v>1066.575949941411</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="D11" t="n">
-        <v>735.5023185943841</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943841</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645001</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G11" t="n">
         <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299101</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5078,13 +5078,13 @@
         <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2514.230740660298</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477902</v>
+        <v>2514.230740660298</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.714766761814</v>
+        <v>2514.230740660298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5121,25 +5121,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7690351314523</v>
+        <v>582.8064544743859</v>
       </c>
       <c r="C13" t="n">
-        <v>431.0249194632689</v>
+        <v>441.0623388062026</v>
       </c>
       <c r="D13" t="n">
-        <v>431.0249194632689</v>
+        <v>318.1377666535905</v>
       </c>
       <c r="E13" t="n">
-        <v>310.3038931405995</v>
+        <v>197.416740330921</v>
       </c>
       <c r="F13" t="n">
-        <v>190.6060129024128</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5224,25 +5224,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1883.289170905035</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1621.378371290402</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1393.885950344239</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535523</v>
+        <v>1131.660847567002</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152586</v>
+        <v>930.8633639287084</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314523</v>
+        <v>737.2628520449019</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1643.66926232386</v>
+        <v>1789.45150504262</v>
       </c>
       <c r="C14" t="n">
-        <v>1301.898812643173</v>
+        <v>1447.681055361932</v>
       </c>
       <c r="D14" t="n">
-        <v>970.8251812961457</v>
+        <v>1116.607424014905</v>
       </c>
       <c r="E14" t="n">
-        <v>970.8251812961457</v>
+        <v>758.0112386763843</v>
       </c>
       <c r="F14" t="n">
-        <v>587.0313437662619</v>
+        <v>374.2174011465004</v>
       </c>
       <c r="G14" t="n">
-        <v>199.1509608709821</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299098</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845703</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="W14" t="n">
-        <v>2712.297990845703</v>
+        <v>2511.806542563106</v>
       </c>
       <c r="X14" t="n">
-        <v>2366.024299844346</v>
+        <v>2511.806542563106</v>
       </c>
       <c r="Y14" t="n">
-        <v>2003.077035128259</v>
+        <v>2148.859277847018</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.4999744331403</v>
+        <v>901.2692096237417</v>
       </c>
       <c r="C16" t="n">
-        <v>640.4999744331403</v>
+        <v>759.5250939555585</v>
       </c>
       <c r="D16" t="n">
-        <v>517.5754022805279</v>
+        <v>636.6005218029464</v>
       </c>
       <c r="E16" t="n">
-        <v>396.8543759578585</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F16" t="n">
-        <v>277.1564957196718</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6457263541144</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H16" t="n">
         <v>136.6457263541144</v>
@@ -5437,10 +5437,10 @@
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1450.123602716358</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535523</v>
+        <v>1450.123602716358</v>
       </c>
       <c r="X16" t="n">
-        <v>834.1004863169467</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.4999744331403</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.696340267699</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>913.4366884189399</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>577.0924838371293</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>236.6617338899228</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
@@ -5522,19 +5522,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
         <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2199.152111892038</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1883.654480124023</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123554</v>
+        <v>569.1217789872292</v>
       </c>
       <c r="C19" t="n">
-        <v>537.857290403444</v>
+        <v>474.8272962671191</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625801</v>
+        <v>399.3523570625803</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879841</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604119</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5713,10 +5713,10 @@
         <v>1038.65726737195</v>
       </c>
       <c r="X19" t="n">
-        <v>885.30941668173</v>
+        <v>822.2794225454052</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459968</v>
+        <v>676.128543609672</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.378438483216</v>
+        <v>1632.378438483217</v>
       </c>
       <c r="C20" t="n">
         <v>1338.057621750602</v>
@@ -5738,7 +5738,7 @@
         <v>743.2870709612007</v>
       </c>
       <c r="F20" t="n">
-        <v>406.94286637939</v>
+        <v>406.9428663793901</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218343</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939509</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3272.095186877297</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>3093.20641035893</v>
       </c>
       <c r="V20" t="n">
-        <v>2836.785223223156</v>
+        <v>2836.785223223157</v>
       </c>
       <c r="W20" t="n">
-        <v>2558.658268160839</v>
+        <v>2558.65826816084</v>
       </c>
       <c r="X20" t="n">
         <v>2259.834210107556</v>
       </c>
       <c r="Y20" t="n">
-        <v>1944.336578339541</v>
+        <v>1944.336578339542</v>
       </c>
     </row>
     <row r="21">
@@ -5896,13 +5896,13 @@
         <v>389.110957824309</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341956</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8015741167114</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H22" t="n">
-        <v>152.2260875423661</v>
+        <v>89.19609340604119</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.185977056953</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324338</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349373</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531262</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>429.6625348018611</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713545</v>
+        <v>763.4819084917076</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844413</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1748.048026412041</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2294.826843470823</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2797.799314350161</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3192.573680707339</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893067</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124122</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859014</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451033</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932667</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.592761796893</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734575</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913278</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>92.38504642094483</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130996</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775279</v>
+        <v>575.9874173775281</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574179</v>
+        <v>481.6929346574182</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528793</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782831</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881696</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706855</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.06173179634018</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182945</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667906</v>
+        <v>639.0473686667907</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663397</v>
+        <v>983.2044142663398</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6184,13 +6184,13 @@
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259243</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357039</v>
+        <v>892.1750550720294</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999707</v>
+        <v>746.0241761362962</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.992678104634</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.303399835341</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668918</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6382,7 +6382,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960323</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973152</v>
@@ -6473,16 +6473,16 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2735.569460712894</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3238.541931592231</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3633.31629794941</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6619,19 +6619,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960323</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
         <v>1910.743863481265</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3182.560655874485</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P32" t="n">
-        <v>3577.335022231663</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6953,31 +6953,31 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7011,7 +7011,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.5850729987469</v>
+        <v>740.9069705127578</v>
       </c>
       <c r="C37" t="n">
-        <v>429.3203246446834</v>
+        <v>670.6422221586943</v>
       </c>
       <c r="D37" t="n">
-        <v>377.8751198061911</v>
+        <v>619.1970173202019</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6334607976414</v>
+        <v>471.2839237378088</v>
       </c>
       <c r="F37" t="n">
-        <v>280.4149478735745</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.251593515703</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1123.418534185965</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>932.6727987228473</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X37" t="n">
-        <v>803.3546823986734</v>
+        <v>946.0051453388409</v>
       </c>
       <c r="Y37" t="n">
-        <v>582.5621032551433</v>
+        <v>823.8840007691541</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.2736995386224</v>
+        <v>444.8926667912273</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107155</v>
+        <v>374.6279184371638</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722233</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898301</v>
+        <v>273.9410545901218</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>225.7225416660548</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146172</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>109.1453874063184</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7360,22 +7360,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.10716072584</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W40" t="n">
-        <v>1131.361425262723</v>
+        <v>779.3089579414843</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.043308938549</v>
+        <v>649.9908416173104</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.9221643688621</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,64 +7394,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389144</v>
+        <v>839.5784050866005</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110075</v>
+        <v>769.3136567325369</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986717</v>
+        <v>717.8684518940445</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901221</v>
+        <v>569.9553583116514</v>
       </c>
       <c r="F43" t="n">
-        <v>225.7225416660551</v>
+        <v>423.065410813741</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146175</v>
+        <v>255.3625741884599</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063177</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891713</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649975</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953107</v>
+        <v>922.5554353429968</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464963</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389146</v>
+        <v>642.2355359389143</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848511</v>
+        <v>571.9707875848508</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463589</v>
+        <v>520.5255827463584</v>
       </c>
       <c r="E46" t="n">
-        <v>471.2839237378092</v>
+        <v>471.2839237378087</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398988</v>
+        <v>423.0654108137417</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7840,16 +7840,16 @@
         <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X46" t="n">
-        <v>946.005145338841</v>
+        <v>847.3337107649974</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953108</v>
+        <v>725.2125661953106</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843063</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729006</v>
+        <v>184.4039433729003</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389603</v>
+        <v>191.4948909389598</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333066</v>
+        <v>181.0856325333061</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830239</v>
+        <v>179.3553748830234</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383989</v>
+        <v>182.8301554383984</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586584</v>
+        <v>190.890803558658</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266123</v>
+        <v>192.010383626612</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875974</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372532</v>
+        <v>113.603122337253</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672273</v>
+        <v>105.962971867227</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253592</v>
+        <v>104.1013981253588</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677642</v>
+        <v>92.30246558677605</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359734</v>
+        <v>106.8829608359731</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798323</v>
+        <v>105.311348779832</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615457</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564657</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085227</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.814425378434</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>105.0013903333791</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>343.5485285966302</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q29" t="n">
-        <v>117.9051702753165</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>174.4519134245553</v>
+        <v>12.68816924374491</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.359633518758495e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266.3490116080361</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>303.232067999229</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>106.7401921032488</v>
       </c>
       <c r="G13" t="n">
-        <v>85.68497798908633</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>361.7177481851468</v>
       </c>
       <c r="H14" t="n">
-        <v>151.0319449915833</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>218.5241545927132</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>67.05362990867118</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.26435989843954</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>52.26435989843969</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>77.04715854934517</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>112.3396371318018</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1303311.463825869</v>
+        <v>1303311.463825868</v>
       </c>
     </row>
     <row r="9">
@@ -26323,13 +26323,13 @@
         <v>91192.50011312183</v>
       </c>
       <c r="F2" t="n">
-        <v>91192.50011312182</v>
+        <v>91192.5001131218</v>
       </c>
       <c r="G2" t="n">
-        <v>99316.35265581703</v>
+        <v>99316.3526558171</v>
       </c>
       <c r="H2" t="n">
-        <v>99316.35265581709</v>
+        <v>99316.35265581711</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330355</v>
@@ -26338,7 +26338,7 @@
         <v>102630.2212330352</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330354</v>
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552304</v>
+        <v>59764.5536755236</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983379</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179683</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,25 +26421,25 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.427895465</v>
+        <v>430603.4278954648</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.1619436497</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.16194364971</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509195</v>
+        <v>77052.32230509192</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509195</v>
+        <v>77052.32230509192</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.5102775438</v>
+        <v>90617.51027754383</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.9551969958</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="K4" t="n">
         <v>88960.95519699575</v>
@@ -26448,16 +26448,16 @@
         <v>88960.95519699578</v>
       </c>
       <c r="M4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="N4" t="n">
-        <v>92183.89891818169</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92183.89891818173</v>
-      </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186636</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26488,7 +26488,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.52830184215</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="P5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-383618.0482093354</v>
+        <v>-383622.4617872035</v>
       </c>
       <c r="C6" t="n">
-        <v>-383618.0482093354</v>
+        <v>-383622.4617872034</v>
       </c>
       <c r="D6" t="n">
-        <v>-423104.5532771111</v>
+        <v>-423108.9110272573</v>
       </c>
       <c r="E6" t="n">
-        <v>-1114640.124358986</v>
+        <v>-1114868.878781384</v>
       </c>
       <c r="F6" t="n">
-        <v>-25401.15219535437</v>
+        <v>-25629.90661775261</v>
       </c>
       <c r="G6" t="n">
-        <v>-95834.72206936384</v>
+        <v>-95900.99944090808</v>
       </c>
       <c r="H6" t="n">
-        <v>-58254.61277448975</v>
+        <v>-58320.89014603406</v>
       </c>
       <c r="I6" t="n">
-        <v>-96545.2851761841</v>
+        <v>-96545.28517618428</v>
       </c>
       <c r="J6" t="n">
-        <v>-101118.1086605636</v>
+        <v>-101118.1086605635</v>
       </c>
       <c r="K6" t="n">
-        <v>-75708.6756387666</v>
+        <v>-75708.67563876662</v>
       </c>
       <c r="L6" t="n">
         <v>-113288.7849336406</v>
       </c>
       <c r="M6" t="n">
-        <v>-274240.3749841204</v>
+        <v>-274240.3749841205</v>
       </c>
       <c r="N6" t="n">
-        <v>-72072.27499139615</v>
+        <v>-72072.27499139616</v>
       </c>
       <c r="O6" t="n">
-        <v>-72072.27499139617</v>
+        <v>-72072.27499139607</v>
       </c>
       <c r="P6" t="n">
-        <v>-72072.27499139617</v>
+        <v>-72072.27499139622</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859251</v>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790671</v>
+        <v>69.78465283790736</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26802,13 +26802,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810305</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951242</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790671</v>
+        <v>69.78465283790736</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873761</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758417</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672104</v>
+        <v>84.22861846672099</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987513</v>
+        <v>90.83829126987504</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.4622088851908</v>
+        <v>84.46220888519072</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990271</v>
+        <v>7.649035050990134</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317048</v>
+        <v>75.62456067317038</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="D19" t="n">
-        <v>11.49558901075707</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075739</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571893</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075724</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I22" t="n">
-        <v>11.49558901075721</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292592</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571895</v>
+        <v>11.4955890107569</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="W25" t="n">
-        <v>11.49558901075665</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571893</v>
       </c>
     </row>
     <row r="26">
@@ -29454,10 +29454,10 @@
         <v>46.97513661859251</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859344</v>
       </c>
       <c r="L28" t="n">
         <v>46.97513661859251</v>
@@ -29691,7 +29691,7 @@
         <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.9751366185935</v>
       </c>
       <c r="K31" t="n">
         <v>46.97513661859251</v>
@@ -29706,7 +29706,7 @@
         <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
         <v>46.97513661859251</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>45.39291458738646</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544447</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.47778196371064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>55.47778196371105</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544514</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>54.14548214544442</v>
       </c>
       <c r="H46" t="n">
-        <v>55.47778196371074</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413333</v>
+        <v>0.2805413179413359</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236668</v>
+        <v>2.873093772366707</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993326</v>
+        <v>10.81556915993336</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362326</v>
+        <v>23.81059368362348</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6859076720799</v>
+        <v>35.68590767208023</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102699</v>
+        <v>44.2715240310274</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396618</v>
+        <v>49.26060069396664</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356699</v>
+        <v>50.05768871356746</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328785</v>
+        <v>47.2680559832883</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661118</v>
+        <v>40.34219219661156</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783717</v>
+        <v>30.29530624783746</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313229</v>
+        <v>17.62255356313246</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588138</v>
+        <v>6.392835282588198</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288187</v>
+        <v>1.228069619288199</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530666</v>
+        <v>0.02244330543530687</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796484</v>
+        <v>0.1501028381796498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840289</v>
+        <v>1.449677410840302</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694035</v>
+        <v>5.168014384694083</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906933</v>
+        <v>14.18142647906946</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710577</v>
+        <v>24.238316637106</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264691</v>
+        <v>32.59140791264721</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665915</v>
+        <v>38.03263579665951</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655688</v>
+        <v>39.03924649655725</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847099</v>
+        <v>35.71328360847132</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449795</v>
+        <v>28.66305863449822</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447582</v>
+        <v>19.160495624476</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767998</v>
+        <v>9.319542882768085</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608818</v>
+        <v>2.788094384608844</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890211</v>
+        <v>0.6050197731890268</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345292</v>
+        <v>0.009875186722345386</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486842</v>
+        <v>0.1258411772486854</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681103</v>
+        <v>1.11884246681104</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078614</v>
+        <v>3.784387403078649</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481974</v>
+        <v>8.896971231482057</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489258</v>
+        <v>14.62045677489272</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477256</v>
+        <v>18.70915102477274</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908238</v>
+        <v>19.72617653908256</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115548</v>
+        <v>19.25713215115566</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875039</v>
+        <v>17.78707839875056</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287722</v>
+        <v>15.21991838287736</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852391</v>
+        <v>10.53748257852401</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381745</v>
+        <v>5.658276933381797</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233887</v>
+        <v>2.193068516233907</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625596</v>
+        <v>0.5376850300625647</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564601</v>
+        <v>0.006864064213564666</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -33269,10 +33269,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923321</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707663</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302269</v>
@@ -36376,10 +36376,10 @@
         <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>355.7956951370987</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>799.1386429889624</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165969</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162913</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q29" t="n">
-        <v>368.6994750790359</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165972</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37002,7 +37002,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412332</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.9322077637029</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>425.2462182282748</v>
+        <v>263.4824740474644</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.921115830226</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865553995</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
